--- a/medicine/Sexualité et sexologie/Clit_Revolution/Clit_Revolution.xlsx
+++ b/medicine/Sexualité et sexologie/Clit_Revolution/Clit_Revolution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Clit Revolution[1] est une série documentaire « qui invite les femmes à dénoncer l'ordre établi en prenant conscience du pouvoir politique de leur corps », selon sa description faîte sur la chaîne de diffusion France Tv Slash. Elle est écrite et réalisée par la journaliste Sarah Constantin et par la réalisatrice Elvire Duvelle-Charles. 
+Clit Revolution est une série documentaire « qui invite les femmes à dénoncer l'ordre établi en prenant conscience du pouvoir politique de leur corps », selon sa description faîte sur la chaîne de diffusion France Tv Slash. Elle est écrite et réalisée par la journaliste Sarah Constantin et par la réalisatrice Elvire Duvelle-Charles. 
 </t>
         </is>
       </c>
@@ -514,14 +526,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Les réalisatrices
-Elvire Duvelle-Charles[2]
-Elvire Duvelle-Charles est journaliste, réalisatrice et activiste féministe. En 2012, elle fait son entrée dans l'activisme avec le groupe militant Femen. Depuis ce rapprochement, elle décline les différents modes d'actions pour se faire entendre : happenings seins nus, parodie de clip de rap, affichage sauvage,...
+          <t>Les réalisatrices</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Elvire Duvelle-Charles[2]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elvire Duvelle-Charles est journaliste, réalisatrice et activiste féministe. En 2012, elle fait son entrée dans l'activisme avec le groupe militant Femen. Depuis ce rapprochement, elle décline les différents modes d'actions pour se faire entendre : happenings seins nus, parodie de clip de rap, affichage sauvage,...
 En réalisant la série documentaire Clit Revolution, aux côtés de Sarah Constantin, et en alimentant le compte Instagram éponyme, elle lutte pour une « révolution de l'intime ». 
-Sarah Constantin
-Sarah Constantin est journaliste, et plus particulièrement une gonzo journaliste. Elle défend les droits des femmes au travers de la presse et des médias. Elle est également militante Femen. 
-Les deux réalisatrices de la série documentaire se sont rencontrées en 2012, grâce à leur activisme chez Femen.
-Résumé des épisodes</t>
+</t>
         </is>
       </c>
     </row>
@@ -546,13 +563,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leur ouvrage</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Après la publication de la web-série Clit Revolution, Sarah Constantin et Elvire Duvelle-Charles publient le « Manuel d'activisme féministe » chez la maison d'édition « des femmes Antoinette Fouque »[6]. Le manuel est illustré par Alice Des, comme toute la web-série d'ailleurs. 
-Dans ce livre, les autrices se proposent de donner des clefs pour sauter le pas dans le monde de l'activisme féministe. Elles proposent, dans la lignée de leur série documentaire, un tour du monde des différents modes d'actions qui existent, afin que chaque lecteur trouve celui qui lui correspond. 
+          <t>Les réalisatrices</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sarah Constantin</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarah Constantin est journaliste, et plus particulièrement une gonzo journaliste. Elle défend les droits des femmes au travers de la presse et des médias. Elle est également militante Femen. 
+Les deux réalisatrices de la série documentaire se sont rencontrées en 2012, grâce à leur activisme chez Femen.
 </t>
         </is>
       </c>
@@ -578,16 +605,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Leur ouvrage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la publication de la web-série Clit Revolution, Sarah Constantin et Elvire Duvelle-Charles publient le « Manuel d'activisme féministe » chez la maison d'édition « des femmes Antoinette Fouque ». Le manuel est illustré par Alice Des, comme toute la web-série d'ailleurs. 
+Dans ce livre, les autrices se proposent de donner des clefs pour sauter le pas dans le monde de l'activisme féministe. Elles proposent, dans la lignée de leur série documentaire, un tour du monde des différents modes d'actions qui existent, afin que chaque lecteur trouve celui qui lui correspond. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clit_Revolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clit_Revolution</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>L'accueil de ces œuvres par le public</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série documentaire
-« C'est ça la CLIT révolution : des initiatives inspirantes et des héroïnes modernes qui font de leur sexualité un outil émancipateur. D’empowerment, de lutte contre une culture patriarcale. Et chacune de ces rencontres, une par épisode, révèle à la téléspectatrice que son intimité est - partout - une question politique. » Juliette Hocheberg. Marie-Claire[7].
-« Le but ? Libérer la parole, lever les tabous mais aussi démontrer que le plaisir féminin a longtemps été cadenassé par une société patriarcale et qu’il peut être un outil d’empowerment. » Laurence Donis. ELLE, 18 mars 2019[8].
-Le manuel
-« Ce livre est parfois, un cours d’histoire, passionnant, où il est question d’Olympe de Gouges, des suffragettes, du MLF, de féministes ». Arts Libre, La Libre Belgique, 10 mars 2020[6]
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La série documentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« C'est ça la CLIT révolution : des initiatives inspirantes et des héroïnes modernes qui font de leur sexualité un outil émancipateur. D’empowerment, de lutte contre une culture patriarcale. Et chacune de ces rencontres, une par épisode, révèle à la téléspectatrice que son intimité est - partout - une question politique. » Juliette Hocheberg. Marie-Claire.
+« Le but ? Libérer la parole, lever les tabous mais aussi démontrer que le plaisir féminin a longtemps été cadenassé par une société patriarcale et qu’il peut être un outil d’empowerment. » Laurence Donis. ELLE, 18 mars 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clit_Revolution</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clit_Revolution</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L'accueil de ces œuvres par le public</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le manuel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Ce livre est parfois, un cours d’histoire, passionnant, où il est question d’Olympe de Gouges, des suffragettes, du MLF, de féministes ». Arts Libre, La Libre Belgique, 10 mars 2020
 « Cet ouvrage constitue ainsi un manuel de survie par l’organisation et la transmission des savoirs en matière de luttes modernes au temps aussi du cyberharcèlement ». Médiapart, 12 mars 2020
 « LA bible de celles qui veulent agir ». Cheek Magazine, 25 mars 2020
 « Portrait d’une femme qui incarne la génération post #MeToo : Elvire Duvelle-Charles ». La Revue des Parents, avril 2020
